--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_32.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2641801.733391223</v>
+        <v>2655664.764099781</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702198</v>
+        <v>2346514.735702199</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9217474.770457178</v>
+        <v>9217474.77045718</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.3421784042262</v>
+        <v>243.2386572690346</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>109.3087119487034</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>126.6496615493079</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>26.5157209296655</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.0396308464222</v>
+        <v>372.0396308464234</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>2.383934328365254</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464222</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385216</v>
+        <v>72.03507205500546</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>372.0396308464222</v>
+        <v>372.0396308464234</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>58.59571506057583</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281881</v>
+        <v>80.69052336281874</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>83.78447335525561</v>
+        <v>166.9863082141301</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>62.26390729945549</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>30.44838804308422</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>133.1229461180406</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>127.609225629981</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>54.89632529172503</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.35153719005411</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274313</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>190.8403961558898</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>100.5225166581538</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1658,10 +1658,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.1537278750037</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>85.43728102995787</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.9020350819584</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>72.06690391387174</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>16.97175332133618</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2375,7 +2375,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>122.6519788371609</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>156.7751430733444</v>
       </c>
       <c r="V28" t="n">
-        <v>155.8720161826963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.76481347543448</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274027</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3317,10 +3317,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701348</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>91.94988401775058</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>12.23273337288942</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113176</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505273995</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385018</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701348</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>119.9099223396143</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385018</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>108.8790619366657</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.18656249897391</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710075</v>
@@ -3983,7 +3983,7 @@
         <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3992,7 @@
         <v>411.9645167896914</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113193</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274068</v>
@@ -4028,7 +4028,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385005</v>
       </c>
       <c r="U44" t="n">
         <v>251.0785952498009</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>60.54139430664161</v>
+        <v>95.02525064967651</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.35312136793682</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C2" t="n">
-        <v>44.35312136793682</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D2" t="n">
-        <v>44.35312136793682</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E2" t="n">
-        <v>44.35312136793682</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873335</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
         <v>22.09252109618843</v>
@@ -4334,7 +4334,7 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
         <v>586.3582880173956</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228791</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>754.2855273228791</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>500.4124063240799</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>500.4124063240799</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>500.4124063240799</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="X2" t="n">
-        <v>221.4664328873572</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.35312136793682</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.7472568676422</v>
+        <v>394.9616908232698</v>
       </c>
       <c r="C3" t="n">
-        <v>160.7472568676422</v>
+        <v>394.9616908232698</v>
       </c>
       <c r="D3" t="n">
-        <v>160.7472568676422</v>
+        <v>394.9616908232698</v>
       </c>
       <c r="E3" t="n">
-        <v>160.7472568676422</v>
+        <v>394.9616908232698</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7472568676422</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L3" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="M3" t="n">
         <v>301.7940899785172</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112776</v>
+        <v>562.3310704112774</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945614</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4434,25 +4434,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>994.213214457196</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T3" t="n">
-        <v>792.3333144853053</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="U3" t="n">
-        <v>564.114702119453</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="V3" t="n">
-        <v>328.9625938877103</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="W3" t="n">
-        <v>328.9625938877103</v>
+        <v>602.8131910288026</v>
       </c>
       <c r="X3" t="n">
-        <v>328.9625938877103</v>
+        <v>394.9616908232698</v>
       </c>
       <c r="Y3" t="n">
-        <v>328.9625938877103</v>
+        <v>394.9616908232698</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>172.2091605085242</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>172.2091605085242</v>
       </c>
       <c r="D4" t="n">
         <v>22.09252109618843</v>
@@ -4492,7 +4492,7 @@
         <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M4" t="n">
         <v>107.6904745160686</v>
@@ -4507,31 +4507,31 @@
         <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>172.2091605085242</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>172.2091605085242</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>172.2091605085242</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>172.2091605085242</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>172.2091605085242</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>172.2091605085242</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>172.2091605085242</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>172.2091605085242</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>172.2091605085242</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>414.9142926055915</v>
+        <v>409.9543028314561</v>
       </c>
       <c r="C5" t="n">
-        <v>414.9142926055915</v>
+        <v>409.9543028314561</v>
       </c>
       <c r="D5" t="n">
-        <v>414.9142926055915</v>
+        <v>51.6886042247056</v>
       </c>
       <c r="E5" t="n">
-        <v>412.5062781324953</v>
+        <v>51.6886042247056</v>
       </c>
       <c r="F5" t="n">
-        <v>405.5607773832918</v>
+        <v>44.74310347550212</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380406</v>
+        <v>57.64391735380445</v>
       </c>
       <c r="K5" t="n">
-        <v>220.174733845688</v>
+        <v>220.1747338456889</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039978</v>
+        <v>474.0852112039993</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494163</v>
+        <v>773.2160860494185</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635722</v>
+        <v>1062.555213635725</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293129</v>
+        <v>1290.582309293133</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935881</v>
+        <v>1447.523776935885</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488192</v>
+        <v>1415.395824340234</v>
       </c>
       <c r="S5" t="n">
-        <v>1166.509506436747</v>
+        <v>1415.395824340234</v>
       </c>
       <c r="T5" t="n">
-        <v>1166.509506436747</v>
+        <v>1415.395824340234</v>
       </c>
       <c r="U5" t="n">
-        <v>1166.509506436747</v>
+        <v>1161.549516662615</v>
       </c>
       <c r="V5" t="n">
-        <v>1166.509506436747</v>
+        <v>1161.549516662615</v>
       </c>
       <c r="W5" t="n">
-        <v>1166.509506436747</v>
+        <v>1161.549516662615</v>
       </c>
       <c r="X5" t="n">
-        <v>1166.509506436747</v>
+        <v>1161.549516662615</v>
       </c>
       <c r="Y5" t="n">
-        <v>790.7118995211695</v>
+        <v>785.7519097470354</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>591.4937918817737</v>
+        <v>715.3030346541047</v>
       </c>
       <c r="C6" t="n">
-        <v>417.0407626006468</v>
+        <v>715.3030346541047</v>
       </c>
       <c r="D6" t="n">
-        <v>417.0407626006468</v>
+        <v>566.3686249928535</v>
       </c>
       <c r="E6" t="n">
-        <v>257.8033075951913</v>
+        <v>507.1810340225749</v>
       </c>
       <c r="F6" t="n">
-        <v>111.2687496220762</v>
+        <v>360.6464760494599</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>222.1710701731421</v>
       </c>
       <c r="H6" t="n">
         <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="K6" t="n">
-        <v>29.76317046771378</v>
+        <v>195.5446164760271</v>
       </c>
       <c r="L6" t="n">
-        <v>314.0811796138501</v>
+        <v>479.8626256221638</v>
       </c>
       <c r="M6" t="n">
-        <v>682.400414151808</v>
+        <v>848.1818601601231</v>
       </c>
       <c r="N6" t="n">
-        <v>1050.719648689766</v>
+        <v>1216.501094698082</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241719</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385694</v>
       </c>
       <c r="S6" t="n">
-        <v>1403.527742218764</v>
+        <v>1319.485484785562</v>
       </c>
       <c r="T6" t="n">
-        <v>1403.527742218764</v>
+        <v>1319.485484785562</v>
       </c>
       <c r="U6" t="n">
-        <v>1175.320927872328</v>
+        <v>1091.278670439127</v>
       </c>
       <c r="V6" t="n">
-        <v>1175.320927872328</v>
+        <v>1091.278670439127</v>
       </c>
       <c r="W6" t="n">
-        <v>1175.320927872328</v>
+        <v>1091.278670439127</v>
       </c>
       <c r="X6" t="n">
-        <v>967.4694276667956</v>
+        <v>1091.278670439127</v>
       </c>
       <c r="Y6" t="n">
-        <v>759.7091289018417</v>
+        <v>883.5183716741728</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888159</v>
+        <v>32.09990175888191</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611271</v>
+        <v>90.61654790611331</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236688</v>
+        <v>162.7032697236697</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400021</v>
+        <v>238.5105468400033</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057946</v>
+        <v>292.5145415057961</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918693</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918693</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918693</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918676</v>
+        <v>92.65600612372953</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918676</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918676</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="V7" t="n">
-        <v>60.51911798598067</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771387</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1697.251320989584</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="C8" t="n">
-        <v>1697.251320989584</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1338.985622382834</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1338.985622382834</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>927.9997175932263</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>510.0359094914131</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>182.841189527416</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,22 +4805,22 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.251320989584</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1697.251320989584</v>
+        <v>1761.414268258235</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641998</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598715</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3069090307627</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3069090307627</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4963,49 +4963,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406178</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587805</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155913</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805494</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822487</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619131</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.193690363625</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5154,7 +5154,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
         <v>1571.258395043133</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.7175987609742</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C13" t="n">
-        <v>506.7814158330673</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>1306.148193632761</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X13" t="n">
-        <v>1078.158642734744</v>
+        <v>796.9660913840228</v>
       </c>
       <c r="Y13" t="n">
-        <v>857.3660635912139</v>
+        <v>576.1735122404926</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5270,10 +5270,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5300,25 +5300,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.2170914602859</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>97.2170914602859</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D16" t="n">
-        <v>97.2170914602859</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E16" t="n">
-        <v>97.2170914602859</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F16" t="n">
-        <v>97.2170914602859</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>97.2170914602859</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.2170914602859</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811262</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441656</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>237.7764125461483</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.2170914602859</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5546,13 +5546,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028587</v>
@@ -5683,40 +5683,40 @@
         <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.60808497467</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557906</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347412</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347412</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141525</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045644</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065471</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y19" t="n">
-        <v>416.2699138005285</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,16 +5762,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>449.7218569567721</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W22" t="n">
-        <v>714.1745431820127</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X22" t="n">
-        <v>486.1849922839954</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>449.7218569567721</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4736.963685299988</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4513.178270089495</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>4224.049631303053</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>3969.365143097165</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>3679.947973060205</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>3679.947973060205</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,22 +6224,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6263,7 +6263,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6312,10 +6312,10 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
         <v>2331.418122136705</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>824.3515998808207</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C28" t="n">
-        <v>824.3515998808207</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684849</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1116.772124970293</v>
       </c>
       <c r="V28" t="n">
-        <v>1052.341150778838</v>
+        <v>862.0876367644058</v>
       </c>
       <c r="W28" t="n">
-        <v>1052.341150778838</v>
+        <v>862.0876367644058</v>
       </c>
       <c r="X28" t="n">
-        <v>824.3515998808207</v>
+        <v>634.0980858663885</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.3515998808207</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6646,25 +6646,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1415.315448865544</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1126.186810079103</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1126.186810079103</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>836.769640042142</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6783,19 +6783,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>4741.167820987514</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>4452.039182201072</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>4197.354693995185</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>3907.937523958224</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>3679.947973060207</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,25 +6923,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6959,13 +6959,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>190.0957621852864</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="C37" t="n">
-        <v>190.0957621852864</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="D37" t="n">
-        <v>190.0957621852864</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="E37" t="n">
-        <v>190.0957621852864</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F37" t="n">
-        <v>190.0957621852864</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V37" t="n">
-        <v>820.5263570570736</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W37" t="n">
-        <v>820.5263570570736</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="X37" t="n">
-        <v>592.5368061590563</v>
+        <v>3791.482564438257</v>
       </c>
       <c r="Y37" t="n">
-        <v>371.7442270155261</v>
+        <v>3570.689985294727</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>488.1932370805461</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7196,7 +7196,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231263</v>
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>485.5200852635876</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>536.9315552689001</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7360,22 +7360,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>985.7136853104475</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>757.7241344124302</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y40" t="n">
-        <v>536.9315552689001</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="41">
@@ -7403,25 +7403,25 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,19 +7433,19 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7497,7 +7497,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
         <v>2051.878056918008</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.038489229382</v>
+        <v>268.3619233770553</v>
       </c>
       <c r="C43" t="n">
-        <v>506.0596387883055</v>
+        <v>99.42574044914838</v>
       </c>
       <c r="D43" t="n">
-        <v>506.0596387883055</v>
+        <v>99.42574044914838</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883055</v>
+        <v>99.42574044914838</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>99.42574044914838</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,46 +7573,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980068</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119732</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035284</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035284</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>898.7925182488425</v>
       </c>
       <c r="V43" t="n">
-        <v>844.0280401273993</v>
+        <v>898.7925182488425</v>
       </c>
       <c r="W43" t="n">
-        <v>844.0280401273993</v>
+        <v>898.7925182488425</v>
       </c>
       <c r="X43" t="n">
-        <v>616.038489229382</v>
+        <v>670.8029673508252</v>
       </c>
       <c r="Y43" t="n">
-        <v>616.038489229382</v>
+        <v>450.010388207295</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805486</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>167.8887746690278</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>316.9584588710876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>420.3226148324574</v>
+        <v>807.0580565471719</v>
       </c>
       <c r="C46" t="n">
-        <v>420.3226148324574</v>
+        <v>638.121873619265</v>
       </c>
       <c r="D46" t="n">
-        <v>420.3226148324574</v>
+        <v>488.0052342069292</v>
       </c>
       <c r="E46" t="n">
-        <v>420.3226148324574</v>
+        <v>340.0921406245361</v>
       </c>
       <c r="F46" t="n">
-        <v>420.3226148324574</v>
+        <v>193.2021931266258</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>420.3226148324574</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X46" t="n">
-        <v>420.3226148324574</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y46" t="n">
-        <v>420.3226148324574</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810002</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562865</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N3" t="n">
-        <v>374.9186269287976</v>
+        <v>374.9186269287974</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948384</v>
+        <v>102.9473967948382</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357572</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835735</v>
+        <v>450.1033532835741</v>
       </c>
       <c r="N6" t="n">
-        <v>437.615280947046</v>
+        <v>437.6152809470466</v>
       </c>
       <c r="O6" t="n">
-        <v>291.5160437006018</v>
+        <v>356.8345892921756</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>85.6882169793611</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247342</v>
+        <v>107.7037345247339</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914202</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928352</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298476</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>180.023701673587</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814685</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814685</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9717,19 +9717,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9960,13 +9960,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10431,22 +10431,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298108</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,22 +10902,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,10 +11145,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11385,10 +11385,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23476,10 +23476,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>95.68260218070117</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>125.1871387308834</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43092547709105</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>140.2723743590793</v>
       </c>
       <c r="Y19" t="n">
-        <v>132.6826182701364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>95.17991718475609</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>269.5512450152548</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>75.26883114644232</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24652,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>129.462209325233</v>
       </c>
       <c r="V28" t="n">
-        <v>96.26562714113166</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,25 +24886,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>138.7827475829548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25123,10 +25123,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>74.54368444562701</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25360,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>213.4769220161477</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>47.33689875901351</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25600,7 +25600,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25609,10 +25609,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>58.36775916196213</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>164.3070059644037</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>105.952174156736</v>
+        <v>71.46831781370108</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>785728.8412942368</v>
+        <v>785728.8412942367</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>785728.8412942367</v>
+        <v>785728.8412942368</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>785728.8412942369</v>
+        <v>785728.8412942367</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>785728.8412942367</v>
+        <v>785728.8412942368</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>785728.8412942367</v>
+        <v>785728.8412942368</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>785728.8412942367</v>
+        <v>785728.8412942369</v>
       </c>
     </row>
     <row r="16">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="E2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="F2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803346</v>
-      </c>
       <c r="G2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="H2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="K2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.4955803341</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
         <v>625646.4955803339</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703839</v>
+        <v>106137.1517703852</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252109</v>
+        <v>316711.9424252093</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113913</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313412</v>
+        <v>24677.24609313442</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.1579381714</v>
+        <v>76496.15793817118</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318756.6528900198</v>
+        <v>316926.9684369122</v>
       </c>
       <c r="C4" t="n">
-        <v>288740.7721312276</v>
+        <v>286886.6599484428</v>
       </c>
       <c r="D4" t="n">
-        <v>194137.7109079702</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>45115.60258318329</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>45115.60258318329</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="G4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="I4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="J4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="L4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="M4" t="n">
-        <v>45115.60258318328</v>
+        <v>43561.4214831656</v>
       </c>
       <c r="N4" t="n">
-        <v>45115.60258318328</v>
+        <v>43561.42148316559</v>
       </c>
       <c r="O4" t="n">
-        <v>45115.6025831833</v>
+        <v>43561.42148316565</v>
       </c>
       <c r="P4" t="n">
-        <v>45115.60258318334</v>
+        <v>43561.42148316565</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485715</v>
+        <v>58810.42201485724</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26500,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160602.0420378138</v>
+        <v>162431.7264909213</v>
       </c>
       <c r="C6" t="n">
-        <v>203145.0699749579</v>
+        <v>204999.1821577417</v>
       </c>
       <c r="D6" t="n">
-        <v>63124.68449483591</v>
+        <v>65055.79901037808</v>
       </c>
       <c r="E6" t="n">
-        <v>-36616.46942846223</v>
+        <v>-35062.28832844447</v>
       </c>
       <c r="F6" t="n">
-        <v>488543.5670484346</v>
+        <v>490097.7481484518</v>
       </c>
       <c r="G6" t="n">
-        <v>488543.5670484342</v>
+        <v>490097.7481484519</v>
       </c>
       <c r="H6" t="n">
-        <v>488543.5670484344</v>
+        <v>490097.7481484519</v>
       </c>
       <c r="I6" t="n">
-        <v>488543.5670484345</v>
+        <v>490097.7481484519</v>
       </c>
       <c r="J6" t="n">
-        <v>416288.8721772952</v>
+        <v>417843.0532773128</v>
       </c>
       <c r="K6" t="n">
-        <v>463866.3209553001</v>
+        <v>465420.5020553176</v>
       </c>
       <c r="L6" t="n">
-        <v>412047.4091102629</v>
+        <v>413601.5902102808</v>
       </c>
       <c r="M6" t="n">
-        <v>353742.5518145968</v>
+        <v>355296.732914615</v>
       </c>
       <c r="N6" t="n">
-        <v>488543.5670484341</v>
+        <v>490097.7481484519</v>
       </c>
       <c r="O6" t="n">
-        <v>488543.5670484339</v>
+        <v>490097.7481484516</v>
       </c>
       <c r="P6" t="n">
-        <v>488543.5670484342</v>
+        <v>490097.7481484519</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>6.063298011819522e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593891</v>
+        <v>117.5602045593901</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26790,16 +26790,16 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464222</v>
+        <v>372.0396308464234</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026378</v>
+        <v>82.53894384026481</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576976</v>
+        <v>260.1834596576962</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406677</v>
+        <v>95.88311714406794</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081334</v>
+        <v>302.2476419081322</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406655</v>
+        <v>95.88311714406771</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081334</v>
+        <v>302.2476419081326</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406677</v>
+        <v>95.88311714406794</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081334</v>
+        <v>302.2476419081322</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.8957602518274</v>
+        <v>142.999281387019</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>60.97526067262974</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>125.0453216116118</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>54.35811195344096</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887132</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.69421081705838</v>
+        <v>10.69421081705718</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>379.5464357438966</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128817</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280909</v>
+        <v>192.2558301280908</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>48.14684508351591</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409303</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.19830780963139</v>
+        <v>14.19830780963019</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>99.04936539482512</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129679</v>
+        <v>84.45800155129665</v>
       </c>
       <c r="S6" t="n">
-        <v>83.20183485887455</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504967</v>
+        <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358477</v>
+        <v>78.37121764358463</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322664</v>
+        <v>68.41045236322648</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255179</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>164.7758903887782</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>256.0746102935068</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>232.149945652967</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>24.32209061488027</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>93.71914772648732</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>202.6835682680302</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.632298752070436e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>4.024786903755736e-12</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>3.884552218198256e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>1.393583540023121e-12</v>
       </c>
       <c r="U44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.496015894297925e-14</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524632</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520187</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779989</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938412</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246794</v>
+        <v>0.4726038374246836</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025499</v>
+        <v>4.840054050025542</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231497</v>
+        <v>18.22005944231513</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662291</v>
+        <v>40.11165994662328</v>
       </c>
       <c r="K5" t="n">
-        <v>60.1169803848096</v>
+        <v>60.11698038481014</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439515</v>
+        <v>74.58043007439582</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819629</v>
+        <v>82.98509856819703</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127916</v>
+        <v>84.32788422127992</v>
       </c>
       <c r="O5" t="n">
-        <v>79.6284298128875</v>
+        <v>79.62842981288821</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646572</v>
+        <v>67.96102257646633</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869438</v>
+        <v>51.03589764869484</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262804</v>
+        <v>29.68720080262831</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531489</v>
+        <v>10.76945994531499</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326535</v>
+        <v>2.068823298326553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397434</v>
+        <v>0.03780830699397468</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560445</v>
+        <v>0.2528653456560467</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941272</v>
+        <v>2.442146890941293</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596267</v>
+        <v>8.706109488596345</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182831</v>
+        <v>23.89022987182852</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078328</v>
+        <v>40.83220803078365</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483544</v>
+        <v>54.90394270483593</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486703</v>
+        <v>64.07031148486762</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270956</v>
+        <v>65.76606198271014</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106773</v>
+        <v>60.16309827106826</v>
       </c>
       <c r="P6" t="n">
-        <v>48.2861904349687</v>
+        <v>48.28619043496914</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128736</v>
+        <v>32.27803956128765</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134634</v>
+        <v>15.69983260134648</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707664</v>
+        <v>4.696862889707706</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359231</v>
+        <v>1.019224792359241</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368714</v>
+        <v>0.01663587800368729</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005376</v>
+        <v>0.2119938115005396</v>
       </c>
       <c r="H7" t="n">
-        <v>1.8848177058866</v>
+        <v>1.884817705886617</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761625</v>
+        <v>6.375232076761683</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308801</v>
+        <v>14.98796247308815</v>
       </c>
       <c r="K7" t="n">
-        <v>24.6298264634261</v>
+        <v>24.62982646342632</v>
       </c>
       <c r="L7" t="n">
-        <v>31.5176981207254</v>
+        <v>31.51769812072568</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094337</v>
+        <v>33.23099356094367</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898684</v>
+        <v>32.44083480898713</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736692</v>
+        <v>29.96436164736718</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275593</v>
+        <v>25.63968789275615</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846775</v>
+        <v>17.75159088846791</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651446</v>
+        <v>9.532012651651531</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513914</v>
+        <v>3.694473969513947</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477515</v>
+        <v>0.9057917400477596</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912025</v>
+        <v>0.01156329880912035</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424823</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>6.370323552522132</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>263.1686671037983</v>
+        <v>263.1686671037982</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.9166388158319</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.1623705920104</v>
+        <v>28.16237059201076</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109938</v>
+        <v>164.1725419109943</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548584</v>
+        <v>256.475229654859</v>
       </c>
       <c r="M5" t="n">
-        <v>302.152398833756</v>
+        <v>302.1523988337568</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366724</v>
+        <v>292.2617450366732</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539461</v>
+        <v>230.3303996539468</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926788</v>
+        <v>158.5267349926795</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414958</v>
+        <v>41.04519843415003</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>167.4560060690033</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284204</v>
+        <v>287.1899082284209</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464222</v>
+        <v>372.0396308464234</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464222</v>
+        <v>372.0396308464234</v>
       </c>
       <c r="O6" t="n">
-        <v>209.082897527225</v>
+        <v>274.4014431187994</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605756</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543247</v>
+        <v>2.360334637543467</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104154</v>
+        <v>59.10772338104182</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278396</v>
+        <v>72.81487052278425</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821543</v>
+        <v>76.57300718821573</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140659</v>
+        <v>54.54948956140686</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764941</v>
+        <v>22.91824715764964</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047531</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221144</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>429.2814066296114</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330535</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>546.4549645786756</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36051,7 +36051,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056071</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330535</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36437,19 +36437,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>274.915516674262</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
@@ -36680,13 +36680,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>326.2624260966948</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37151,22 +37151,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>212.353110871397</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>88.01303278507413</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
@@ -37950,7 +37950,7 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206069</v>
       </c>
       <c r="P43" t="n">
         <v>178.3836006118008</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>71.38553859468877</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38105,10 +38105,10 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315247</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2655664.764099781</v>
+        <v>2737348.806638078</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702199</v>
+        <v>2346514.735702198</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>221.6284460753918</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>126.6496615493079</v>
+        <v>251.518536774245</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.5157209296655</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.0396308464234</v>
+        <v>358.5231942916228</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>372.0396308464215</v>
       </c>
       <c r="G5" t="n">
-        <v>14.83013367771037</v>
+        <v>372.0396308464215</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>72.03507205500546</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>372.0396308464234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>58.59571506057583</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -993,7 +995,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281874</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>174.4516131048526</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>136.1520687203422</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>62.26390729945549</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>133.1229461180406</v>
+        <v>128.3685459889159</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>22.35153719005411</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>190.3001368141498</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>163.8194016828314</v>
       </c>
       <c r="X13" t="n">
-        <v>100.5225166581538</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>35.40599718181628</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.34190763938388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>85.43728102995787</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896917</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3.441682912441427</v>
       </c>
       <c r="C22" t="n">
-        <v>72.06690391387174</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2375,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>49.38162151975563</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>6.090514889239209</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>156.7751430733444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2846,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>46.47316631953592</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>135.9421075406301</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>12.23273337288942</v>
+        <v>82.55407911893364</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.780615930647</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>215.0546805228902</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.18656249897391</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>148.7161203484789</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113193</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385005</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4147,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>95.02525064967651</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>219.9420768090758</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>579.9844679696338</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="C2" t="n">
-        <v>579.9844679696338</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="D2" t="n">
-        <v>579.9844679696338</v>
+        <v>475.3395538861566</v>
       </c>
       <c r="E2" t="n">
-        <v>579.9844679696338</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329111</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="W2" t="n">
-        <v>825.6800813726991</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="X2" t="n">
-        <v>825.6800813726991</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.9844679696338</v>
+        <v>754.2855273228794</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>394.9616908232698</v>
+        <v>582.1176171367373</v>
       </c>
       <c r="C3" t="n">
-        <v>394.9616908232698</v>
+        <v>407.6645878556103</v>
       </c>
       <c r="D3" t="n">
-        <v>394.9616908232698</v>
+        <v>407.6645878556103</v>
       </c>
       <c r="E3" t="n">
-        <v>394.9616908232698</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="F3" t="n">
         <v>248.4271328501548</v>
@@ -4404,55 +4406,55 @@
         <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>28.39914141318535</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>28.39914141318535</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>301.7940899785172</v>
+        <v>679.0427979944841</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112774</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945613</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>932.6220420606003</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T3" t="n">
-        <v>730.7421420887096</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="U3" t="n">
-        <v>730.7421420887096</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="V3" t="n">
-        <v>730.7421420887096</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="W3" t="n">
-        <v>602.8131910288026</v>
+        <v>582.1176171367373</v>
       </c>
       <c r="X3" t="n">
-        <v>394.9616908232698</v>
+        <v>582.1176171367373</v>
       </c>
       <c r="Y3" t="n">
-        <v>394.9616908232698</v>
+        <v>582.1176171367373</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.2091605085242</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>172.2091605085242</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492714</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>172.2091605085242</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2091605085242</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>172.2091605085242</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>172.2091605085242</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>409.9543028314561</v>
+        <v>781.3583842988684</v>
       </c>
       <c r="C5" t="n">
-        <v>409.9543028314561</v>
+        <v>781.3583842988684</v>
       </c>
       <c r="D5" t="n">
-        <v>51.6886042247056</v>
+        <v>781.3583842988684</v>
       </c>
       <c r="E5" t="n">
-        <v>51.6886042247056</v>
+        <v>781.3583842988684</v>
       </c>
       <c r="F5" t="n">
-        <v>44.74310347550212</v>
+        <v>405.5607773832911</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380445</v>
+        <v>57.64391735380383</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456889</v>
+        <v>220.1747338456873</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039993</v>
+        <v>474.0852112039967</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494185</v>
+        <v>773.2160860494148</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635725</v>
+        <v>1062.55521363572</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293133</v>
+        <v>1290.582309293127</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935885</v>
+        <v>1447.523776935878</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="R5" t="n">
-        <v>1415.395824340234</v>
+        <v>1366.762647488189</v>
       </c>
       <c r="S5" t="n">
-        <v>1415.395824340234</v>
+        <v>1366.762647488189</v>
       </c>
       <c r="T5" t="n">
-        <v>1415.395824340234</v>
+        <v>1143.503024997477</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.549516662615</v>
+        <v>1143.503024997477</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.549516662615</v>
+        <v>1143.503024997477</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.549516662615</v>
+        <v>1143.503024997477</v>
       </c>
       <c r="X5" t="n">
-        <v>1161.549516662615</v>
+        <v>1143.503024997477</v>
       </c>
       <c r="Y5" t="n">
-        <v>785.7519097470354</v>
+        <v>1143.503024997477</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>715.3030346541047</v>
+        <v>425.6754548682125</v>
       </c>
       <c r="C6" t="n">
-        <v>715.3030346541047</v>
+        <v>425.6754548682125</v>
       </c>
       <c r="D6" t="n">
-        <v>566.3686249928535</v>
+        <v>425.6754548682125</v>
       </c>
       <c r="E6" t="n">
-        <v>507.1810340225749</v>
+        <v>425.6754548682125</v>
       </c>
       <c r="F6" t="n">
-        <v>360.6464760494599</v>
+        <v>279.1408968950974</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>140.6654910187796</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771387</v>
+        <v>52.67537262782835</v>
       </c>
       <c r="K6" t="n">
-        <v>195.5446164760271</v>
+        <v>218.456818636141</v>
       </c>
       <c r="L6" t="n">
-        <v>479.8626256221638</v>
+        <v>502.774827782277</v>
       </c>
       <c r="M6" t="n">
-        <v>848.1818601601231</v>
+        <v>871.0940623202343</v>
       </c>
       <c r="N6" t="n">
-        <v>1216.501094698082</v>
+        <v>1239.413296858192</v>
       </c>
       <c r="O6" t="n">
-        <v>1488.158523385694</v>
+        <v>1239.413296858192</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385694</v>
+        <v>1386.808705706683</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385694</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="S6" t="n">
-        <v>1319.485484785562</v>
+        <v>1319.485484785554</v>
       </c>
       <c r="T6" t="n">
-        <v>1319.485484785562</v>
+        <v>1143.271734174592</v>
       </c>
       <c r="U6" t="n">
-        <v>1091.278670439127</v>
+        <v>915.0649198281567</v>
       </c>
       <c r="V6" t="n">
-        <v>1091.278670439127</v>
+        <v>679.912811596414</v>
       </c>
       <c r="W6" t="n">
-        <v>1091.278670439127</v>
+        <v>425.6754548682125</v>
       </c>
       <c r="X6" t="n">
-        <v>1091.278670439127</v>
+        <v>425.6754548682125</v>
       </c>
       <c r="Y6" t="n">
-        <v>883.5183716741728</v>
+        <v>425.6754548682125</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771387</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771387</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771387</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771387</v>
+        <v>167.2905126094735</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771387</v>
+        <v>167.2905126094735</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771387</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888191</v>
+        <v>32.09990175888141</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611331</v>
+        <v>90.61654790611237</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236697</v>
+        <v>162.7032697236683</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400033</v>
+        <v>238.5105468400014</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057961</v>
+        <v>292.5145415057938</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918693</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="S7" t="n">
-        <v>92.65600612372953</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="T7" t="n">
-        <v>29.76317046771387</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="U7" t="n">
-        <v>29.76317046771387</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="V7" t="n">
-        <v>29.76317046771387</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771387</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771387</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771387</v>
+        <v>315.2036061918666</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1761.414268258235</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,22 +4807,22 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.414268258235</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1761.414268258235</v>
+        <v>1680.577747274852</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4883,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641998</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598715</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406178</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587805</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>535.9066237881011</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.5250474102529</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C13" t="n">
-        <v>394.5250474102529</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W13" t="n">
-        <v>898.5039869983195</v>
+        <v>709.4529700088207</v>
       </c>
       <c r="X13" t="n">
-        <v>796.9660913840228</v>
+        <v>709.4529700088207</v>
       </c>
       <c r="Y13" t="n">
-        <v>576.1735122404926</v>
+        <v>709.4529700088207</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5273,22 +5275,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5300,22 +5302,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.27469227828</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2315.738453580939</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2520.760934363149</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632138</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1463.152637040916</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1463.152637040916</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1239.367221830422</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1239.367221830422</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>984.6827336245351</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>984.6827336245351</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>984.6827336245351</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>763.890154481005</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>668.5943183619627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,34 +5740,34 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5783,13 +5785,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5832,16 +5834,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>449.7218569567721</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="C22" t="n">
-        <v>376.9270045185178</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185178</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185178</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185178</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5950,10 +5952,10 @@
         <v>898.5039869983195</v>
       </c>
       <c r="X22" t="n">
-        <v>670.5144361003022</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="Y22" t="n">
-        <v>449.7218569567721</v>
+        <v>677.7114078547894</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>410.8745301331628</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1024.771599890051</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>3753.958434996978</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>3753.958434996978</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>3753.958434996978</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>3803.838860774509</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6205,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,10 +6226,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,13 +6238,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6251,19 +6253,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6303,25 +6305,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>592.8217113586345</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>857.5427825698952</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.3055067228584</v>
+        <v>678.2225136306378</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3055067228584</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1381.689131878072</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1381.689131878072</v>
       </c>
       <c r="U28" t="n">
-        <v>1116.772124970293</v>
+        <v>1381.689131878072</v>
       </c>
       <c r="V28" t="n">
-        <v>862.0876367644058</v>
+        <v>1127.004643672185</v>
       </c>
       <c r="W28" t="n">
-        <v>862.0876367644058</v>
+        <v>1127.004643672185</v>
       </c>
       <c r="X28" t="n">
-        <v>634.0980858663885</v>
+        <v>899.0150927741679</v>
       </c>
       <c r="Y28" t="n">
-        <v>413.3055067228584</v>
+        <v>678.2225136306378</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,16 +6466,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6649,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1252.053668231499</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1252.053668231499</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>962.6364981945386</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>962.6364981945386</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916677</v>
+        <v>4206.132591937264</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916677</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916677</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916677</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916677</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>4741.167820987514</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>4452.039182201072</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V34" t="n">
-        <v>4197.354693995185</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W34" t="n">
-        <v>3907.937523958224</v>
+        <v>4571.437402977332</v>
       </c>
       <c r="X34" t="n">
-        <v>3679.947973060207</v>
+        <v>4343.447852079315</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916677</v>
+        <v>4206.132591937264</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3570.689985294727</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C37" t="n">
-        <v>3570.689985294727</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>4347.940519017357</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>4093.25603081147</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W37" t="n">
-        <v>3803.838860774509</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X37" t="n">
-        <v>3791.482564438257</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y37" t="n">
-        <v>3570.689985294727</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805461</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7199,25 +7201,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>383.3526312522299</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>383.3526312522299</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>383.3526312522299</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>383.3526312522299</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>383.3526312522299</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>215.1773095720505</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X40" t="n">
-        <v>1281.689320534781</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y40" t="n">
-        <v>1060.896741391251</v>
+        <v>565.0010960824696</v>
       </c>
     </row>
     <row r="41">
@@ -7397,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7412,16 +7414,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7494,19 +7496,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>268.3619233770553</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C43" t="n">
-        <v>99.42574044914838</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D43" t="n">
-        <v>99.42574044914838</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>99.42574044914838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>99.42574044914838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7582,37 +7584,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980068</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119732</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035284</v>
+        <v>1348.697967175601</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.921157035284</v>
+        <v>1348.697967175601</v>
       </c>
       <c r="U43" t="n">
-        <v>898.7925182488425</v>
+        <v>1059.569328389159</v>
       </c>
       <c r="V43" t="n">
-        <v>898.7925182488425</v>
+        <v>804.8848401832718</v>
       </c>
       <c r="W43" t="n">
-        <v>898.7925182488425</v>
+        <v>804.8848401832718</v>
       </c>
       <c r="X43" t="n">
-        <v>670.8029673508252</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y43" t="n">
-        <v>450.010388207295</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805486</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7676,22 +7678,22 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7733,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>807.0580565471719</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>638.121873619265</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>488.0052342069292</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>340.0921406245361</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>193.2021931266258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.499100520942</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y46" t="n">
-        <v>988.7065213774116</v>
+        <v>711.072954880832</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324504</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>374.9186269287974</v>
+        <v>342.7591889337359</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>124.6736186875539</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948382</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835741</v>
+        <v>450.1033532835731</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470466</v>
+        <v>437.6152809470456</v>
       </c>
       <c r="O6" t="n">
-        <v>356.8345892921756</v>
+        <v>82.43314617337701</v>
       </c>
       <c r="P6" t="n">
-        <v>85.6882169793611</v>
+        <v>234.5724683414738</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247339</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914202</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>15.83804904622824</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,19 +9482,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>230.7151863772033</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10130,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,19 +10910,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>145.2351313103794</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,13 +11144,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11379,19 +11381,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>122.7035966537596</v>
       </c>
       <c r="X13" t="n">
-        <v>125.1871387308834</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>74.55835522197651</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.2427457127109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23941,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>140.2723743590793</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>176.3902972694959</v>
       </c>
       <c r="C22" t="n">
-        <v>95.17991718475609</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>130.4503586621817</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24415,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>191.830295094364</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>129.462209325233</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24889,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>239.7641860790414</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>82.64254581146466</v>
       </c>
     </row>
     <row r="35">
@@ -25312,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>213.4769220161477</v>
+        <v>143.1555762701035</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>32.13321243688911</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25609,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>10.654974866147</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>164.3070059644037</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>49.2046896351244</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>71.46831781370108</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26080,16 +26082,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>5.767578579961395</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>785728.8412942367</v>
+        <v>785728.8412942368</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>785728.8412942368</v>
+        <v>785728.8412942367</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>785728.8412942367</v>
+        <v>785728.8412942368</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>785728.8412942368</v>
+        <v>785728.8412942367</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>785728.8412942368</v>
+        <v>785728.8412942367</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>785728.8412942369</v>
+        <v>785728.8412942367</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914264</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.415891427</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803344</v>
       </c>
       <c r="H2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="I2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="K2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.495580334</v>
       </c>
       <c r="P2" t="n">
         <v>625646.4955803342</v>
@@ -26366,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703852</v>
+        <v>106137.1517703831</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252093</v>
+        <v>316711.9424252116</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113919</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313442</v>
+        <v>24677.24609313393</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817118</v>
+        <v>76496.15793817157</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26418,10 +26420,10 @@
         <v>316926.9684369122</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484428</v>
+        <v>286886.6599484434</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
         <v>43561.42148316556</v>
@@ -26445,19 +26447,19 @@
         <v>43561.42148316556</v>
       </c>
       <c r="L4" t="n">
+        <v>43561.42148316555</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43561.42148316555</v>
+      </c>
+      <c r="N4" t="n">
         <v>43561.42148316556</v>
       </c>
-      <c r="M4" t="n">
-        <v>43561.4214831656</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43561.42148316559</v>
-      </c>
       <c r="O4" t="n">
-        <v>43561.42148316565</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="P4" t="n">
-        <v>43561.42148316565</v>
+        <v>43561.42148316556</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485724</v>
+        <v>58810.4220148571</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162431.7264909213</v>
+        <v>162431.7264909211</v>
       </c>
       <c r="C6" t="n">
-        <v>204999.1821577417</v>
+        <v>204999.182157743</v>
       </c>
       <c r="D6" t="n">
-        <v>65055.79901037808</v>
+        <v>65055.79901037595</v>
       </c>
       <c r="E6" t="n">
-        <v>-35062.28832844447</v>
+        <v>-35062.2883284441</v>
       </c>
       <c r="F6" t="n">
-        <v>490097.7481484518</v>
+        <v>490097.748148452</v>
       </c>
       <c r="G6" t="n">
-        <v>490097.7481484519</v>
+        <v>490097.7481484523</v>
       </c>
       <c r="H6" t="n">
         <v>490097.7481484519</v>
       </c>
       <c r="I6" t="n">
-        <v>490097.7481484519</v>
+        <v>490097.7481484523</v>
       </c>
       <c r="J6" t="n">
-        <v>417843.0532773128</v>
+        <v>417843.0532773125</v>
       </c>
       <c r="K6" t="n">
-        <v>465420.5020553176</v>
+        <v>465420.502055318</v>
       </c>
       <c r="L6" t="n">
-        <v>413601.5902102808</v>
+        <v>413601.5902102805</v>
       </c>
       <c r="M6" t="n">
-        <v>355296.732914615</v>
+        <v>355296.7329146148</v>
       </c>
       <c r="N6" t="n">
-        <v>490097.7481484519</v>
+        <v>490097.7481484518</v>
       </c>
       <c r="O6" t="n">
-        <v>490097.7481484516</v>
+        <v>490097.7481484518</v>
       </c>
       <c r="P6" t="n">
-        <v>490097.7481484519</v>
+        <v>490097.748148452</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593901</v>
+        <v>117.5602045593885</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464234</v>
+        <v>372.0396308464215</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026481</v>
+        <v>82.53894384026314</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576962</v>
+        <v>260.1834596576982</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406794</v>
+        <v>95.88311714406603</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081322</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023558</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406771</v>
+        <v>95.88311714406581</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081326</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406794</v>
+        <v>95.88311714406603</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081322</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>160.30192399687</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>142.999281387019</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,16 +27460,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
@@ -27518,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>125.0453216116118</v>
+        <v>0.1764463866745984</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.35811195344096</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.69421081705718</v>
+        <v>24.21064737185782</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>34.83641489528992</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>42.79050283128885</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280908</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.14684508351591</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409303</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.19830780963019</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>99.04936539482512</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27713,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129665</v>
+        <v>84.45800155129687</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>24.69389079760973</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7789855469582</v>
+        <v>31.62691682661602</v>
       </c>
       <c r="H7" t="n">
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358463</v>
+        <v>78.37121764358484</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322648</v>
+        <v>68.41045236322672</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255179</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>164.7758903887782</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>232.149945652967</v>
+        <v>236.9043457820917</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6835682680302</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>61.83750650967824</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30654,7 +30656,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>4.024786903755736e-12</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30697,25 +30699,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.393583540023121e-12</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31045,7 +31047,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31057,31 +31059,31 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870377</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,28 +31120,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779989</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31148,10 +31150,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
@@ -31160,7 +31162,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
         <v>2.839592713390063</v>
@@ -31236,10 +31238,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246836</v>
+        <v>0.4726038374246769</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025542</v>
+        <v>4.840054050025474</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231513</v>
+        <v>18.22005944231488</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662328</v>
+        <v>40.11165994662271</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038481014</v>
+        <v>60.1169803848093</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439582</v>
+        <v>74.58043007439477</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819703</v>
+        <v>82.98509856819587</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127992</v>
+        <v>84.32788422127874</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288821</v>
+        <v>79.62842981288711</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646633</v>
+        <v>67.96102257646538</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869484</v>
+        <v>51.03589764869412</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262831</v>
+        <v>29.68720080262789</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531499</v>
+        <v>10.76945994531484</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326553</v>
+        <v>2.068823298326524</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397468</v>
+        <v>0.03780830699397415</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560467</v>
+        <v>0.2528653456560432</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941293</v>
+        <v>2.442146890941259</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596345</v>
+        <v>8.706109488596224</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182852</v>
+        <v>23.89022987182819</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078365</v>
+        <v>40.83220803078308</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483593</v>
+        <v>54.90394270483517</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486762</v>
+        <v>64.07031148486671</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198271014</v>
+        <v>65.76606198270923</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106826</v>
+        <v>60.16309827106743</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496914</v>
+        <v>48.28619043496845</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128765</v>
+        <v>32.27803956128719</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134648</v>
+        <v>15.69983260134626</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707706</v>
+        <v>4.69686288970764</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359241</v>
+        <v>1.019224792359226</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368729</v>
+        <v>0.01663587800368706</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005396</v>
+        <v>0.2119938115005366</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886617</v>
+        <v>1.88481770588659</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761683</v>
+        <v>6.375232076761593</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308815</v>
+        <v>14.98796247308794</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342632</v>
+        <v>24.62982646342597</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072568</v>
+        <v>31.51769812072524</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094367</v>
+        <v>33.2309935609432</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898713</v>
+        <v>32.44083480898668</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736718</v>
+        <v>29.96436164736676</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275615</v>
+        <v>25.63968789275579</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846791</v>
+        <v>17.75159088846766</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651531</v>
+        <v>9.532012651651398</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513947</v>
+        <v>3.694473969513895</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477596</v>
+        <v>0.905791740047747</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912035</v>
+        <v>0.01156329880912019</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34717,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424823</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522132</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>263.1686671037982</v>
+        <v>231.0092291087367</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,13 +34868,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.9166388158319</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201076</v>
+        <v>28.16237059201019</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109943</v>
+        <v>164.1725419109935</v>
       </c>
       <c r="L5" t="n">
-        <v>256.475229654859</v>
+        <v>256.475229654858</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337568</v>
+        <v>302.1523988337556</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366732</v>
+        <v>292.261745036672</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539468</v>
+        <v>230.3303996539457</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926795</v>
+        <v>158.5267349926785</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843415003</v>
+        <v>41.04519843414931</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>23.14363854557033</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690033</v>
+        <v>167.4560060690027</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284209</v>
+        <v>287.1899082284202</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464234</v>
+        <v>372.0396308464215</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464234</v>
+        <v>372.0396308464215</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4014431187994</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>148.884251362112</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.3735532111148</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543467</v>
+        <v>2.360334637543119</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104182</v>
+        <v>59.10772338104137</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278425</v>
+        <v>72.81487052278379</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821573</v>
+        <v>76.57300718821527</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140686</v>
+        <v>54.54948956140644</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764964</v>
+        <v>22.91824715764928</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047531</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.8510818313024</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>599.0230052898812</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>546.4549645786756</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>479.9728913332276</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
@@ -36376,7 +36378,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R23" t="n">
         <v>59.8253897034981</v>
@@ -36437,10 +36439,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>274.915516674262</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36449,13 +36451,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>332.6095128747336</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
         <v>59.8253897034981</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36923,13 +36925,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37312,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37397,16 +37399,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>201.6157249145282</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,19 +37630,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,13 +37864,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>641.3196830252161</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
@@ -37877,7 +37879,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206069</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
         <v>178.3836006118008</v>
@@ -38099,19 +38101,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2737348.806638078</v>
+        <v>2730175.517927795</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702198</v>
+        <v>2346514.735702203</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9217474.77045718</v>
+        <v>9217474.770457178</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="E2" t="n">
-        <v>221.6284460753918</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>100.7639600612484</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>76.53417212101688</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.518536774245</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>7.203367682519206</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.5231942916228</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>357.6996146551611</v>
       </c>
       <c r="F5" t="n">
         <v>372.0396308464215</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464215</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>61.17339989484393</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>174.4516131048526</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,10 +1040,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>114.807045819953</v>
       </c>
       <c r="G7" t="n">
-        <v>136.1520687203422</v>
+        <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>128.3685459889159</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>63.15162983675064</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>190.3001368141498</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>142.6271181085172</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113186</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986193</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>137.9604981520738</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>163.8194016828314</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.40599718181628</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896917</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.441682912441427</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.38162151975563</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417133</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>6.090514889239209</v>
+        <v>12.78917898910547</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>46.47316631953592</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.9421075406301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3319,10 +3319,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.55407911893364</v>
+        <v>211.2541671901405</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.780615930647</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>148.7161203484789</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>219.9420768090758</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>754.2855273228794</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="C2" t="n">
-        <v>754.2855273228794</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="D2" t="n">
-        <v>475.3395538861566</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="E2" t="n">
-        <v>251.4724366382861</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="F2" t="n">
-        <v>244.5269358890827</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228794</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>754.2855273228794</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="U2" t="n">
-        <v>754.2855273228794</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="V2" t="n">
-        <v>754.2855273228794</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="W2" t="n">
-        <v>754.2855273228794</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="X2" t="n">
-        <v>754.2855273228794</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="Y2" t="n">
-        <v>754.2855273228794</v>
+        <v>316.3535940554561</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>582.1176171367373</v>
+        <v>651.2519730171373</v>
       </c>
       <c r="C3" t="n">
-        <v>407.6645878556103</v>
+        <v>476.7989437360102</v>
       </c>
       <c r="D3" t="n">
-        <v>407.6645878556103</v>
+        <v>327.864534074759</v>
       </c>
       <c r="E3" t="n">
-        <v>248.4271328501548</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F3" t="n">
-        <v>248.4271328501548</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
@@ -4412,16 +4412,16 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M3" t="n">
-        <v>679.0427979944841</v>
+        <v>541.6429362542214</v>
       </c>
       <c r="N3" t="n">
-        <v>907.7419348121334</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O3" t="n">
         <v>907.7419348121334</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>836.1767451915302</v>
+        <v>1027.318810242738</v>
       </c>
       <c r="T3" t="n">
-        <v>836.1767451915302</v>
+        <v>1027.318810242738</v>
       </c>
       <c r="U3" t="n">
-        <v>836.1767451915302</v>
+        <v>1027.318810242738</v>
       </c>
       <c r="V3" t="n">
-        <v>836.1767451915302</v>
+        <v>1027.318810242738</v>
       </c>
       <c r="W3" t="n">
-        <v>582.1176171367373</v>
+        <v>1027.318810242738</v>
       </c>
       <c r="X3" t="n">
-        <v>582.1176171367373</v>
+        <v>819.4673100372054</v>
       </c>
       <c r="Y3" t="n">
-        <v>582.1176171367373</v>
+        <v>819.4673100372054</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G4" t="n">
         <v>22.09252109618844</v>
@@ -4527,13 +4527,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.3583842988684</v>
+        <v>781.8534524669996</v>
       </c>
       <c r="C5" t="n">
-        <v>781.3583842988684</v>
+        <v>781.8534524669996</v>
       </c>
       <c r="D5" t="n">
-        <v>781.3583842988684</v>
+        <v>781.8534524669996</v>
       </c>
       <c r="E5" t="n">
-        <v>781.3583842988684</v>
+        <v>420.5407103910792</v>
       </c>
       <c r="F5" t="n">
-        <v>405.5607773832911</v>
+        <v>44.74310347550198</v>
       </c>
       <c r="G5" t="n">
         <v>29.76317046771372</v>
@@ -4567,13 +4567,13 @@
         <v>29.76317046771372</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380383</v>
+        <v>57.64391735380389</v>
       </c>
       <c r="K5" t="n">
         <v>220.1747338456873</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039967</v>
+        <v>474.0852112039968</v>
       </c>
       <c r="M5" t="n">
         <v>773.2160860494148</v>
@@ -4582,7 +4582,7 @@
         <v>1062.55521363572</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293127</v>
+        <v>1290.582309293126</v>
       </c>
       <c r="P5" t="n">
         <v>1447.523776935878</v>
@@ -4597,22 +4597,22 @@
         <v>1366.762647488189</v>
       </c>
       <c r="T5" t="n">
-        <v>1143.503024997477</v>
+        <v>1366.762647488189</v>
       </c>
       <c r="U5" t="n">
-        <v>1143.503024997477</v>
+        <v>1112.91633981057</v>
       </c>
       <c r="V5" t="n">
-        <v>1143.503024997477</v>
+        <v>781.8534524669996</v>
       </c>
       <c r="W5" t="n">
-        <v>1143.503024997477</v>
+        <v>781.8534524669996</v>
       </c>
       <c r="X5" t="n">
-        <v>1143.503024997477</v>
+        <v>781.8534524669996</v>
       </c>
       <c r="Y5" t="n">
-        <v>1143.503024997477</v>
+        <v>781.8534524669996</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>425.6754548682125</v>
+        <v>414.9419224351869</v>
       </c>
       <c r="C6" t="n">
-        <v>425.6754548682125</v>
+        <v>240.4888931540599</v>
       </c>
       <c r="D6" t="n">
-        <v>425.6754548682125</v>
+        <v>91.5544834928086</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6754548682125</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="F6" t="n">
-        <v>279.1408968950974</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="G6" t="n">
-        <v>140.6654910187796</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="H6" t="n">
         <v>29.76317046771372</v>
@@ -4646,25 +4646,25 @@
         <v>29.76317046771372</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782835</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="K6" t="n">
-        <v>218.456818636141</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="L6" t="n">
-        <v>502.774827782277</v>
+        <v>314.0811796138497</v>
       </c>
       <c r="M6" t="n">
-        <v>871.0940623202343</v>
+        <v>682.4004141518069</v>
       </c>
       <c r="N6" t="n">
-        <v>1239.413296858192</v>
+        <v>949.3968358693974</v>
       </c>
       <c r="O6" t="n">
-        <v>1239.413296858192</v>
+        <v>1257.711717241716</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706683</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="Q6" t="n">
         <v>1488.158523385686</v>
@@ -4673,25 +4673,25 @@
         <v>1488.158523385686</v>
       </c>
       <c r="S6" t="n">
-        <v>1319.485484785554</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="T6" t="n">
-        <v>1143.271734174592</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="U6" t="n">
-        <v>915.0649198281567</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="V6" t="n">
-        <v>679.912811596414</v>
+        <v>1253.006415153943</v>
       </c>
       <c r="W6" t="n">
-        <v>425.6754548682125</v>
+        <v>998.7690584257416</v>
       </c>
       <c r="X6" t="n">
-        <v>425.6754548682125</v>
+        <v>790.9175582202088</v>
       </c>
       <c r="Y6" t="n">
-        <v>425.6754548682125</v>
+        <v>583.1572594552549</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="C7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="D7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="E7" t="n">
-        <v>167.2905126094735</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="F7" t="n">
-        <v>167.2905126094735</v>
+        <v>199.236893242419</v>
       </c>
       <c r="G7" t="n">
         <v>29.76317046771372</v>
@@ -4728,10 +4728,10 @@
         <v>29.76317046771372</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888141</v>
+        <v>32.09990175888139</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611237</v>
+        <v>90.61654790611234</v>
       </c>
       <c r="M7" t="n">
         <v>162.7032697236683</v>
@@ -4740,37 +4740,37 @@
         <v>238.5105468400014</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057938</v>
+        <v>292.5145415057937</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918665</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918665</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1293.977907210731</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.312709242129</v>
+        <v>636.4096822688557</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>278.1439836621052</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>278.1439836621052</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>271.1984829129017</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2070.717079250664</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1680.577747274852</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511405</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>535.9066237881011</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>246.4894537511405</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>246.4894537511405</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.4894537511405</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5029,64 +5029,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805479</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.8045051785809</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C13" t="n">
-        <v>358.8683222506741</v>
+        <v>699.5494927582171</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>699.5494927582171</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>551.636399175824</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>404.7464516779136</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>236.5711299977342</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>709.4529700088207</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>709.4529700088207</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y13" t="n">
-        <v>709.4529700088207</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1463.152637040916</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1463.152637040916</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1239.367221830422</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1239.367221830422</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>984.6827336245351</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>984.6827336245351</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>984.6827336245351</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>763.890154481005</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L18" t="n">
-        <v>880.8106280646857</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.130761344647</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5703,16 +5703,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5728,58 +5728,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>898.5039869983195</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>898.5039869983195</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>677.7114078547894</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,22 +6071,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3753.958434996978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3753.958434996978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3753.958434996978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.25603081147</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3803.838860774509</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3803.838860774509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3803.838860774509</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6229,22 +6229,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6253,25 +6253,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>592.8217113586345</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>678.2225136306378</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>509.2863307027309</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1381.689131878072</v>
+        <v>1485.997907942645</v>
       </c>
       <c r="T28" t="n">
-        <v>1381.689131878072</v>
+        <v>1262.212492732151</v>
       </c>
       <c r="U28" t="n">
-        <v>1381.689131878072</v>
+        <v>973.0838539457087</v>
       </c>
       <c r="V28" t="n">
-        <v>1127.004643672185</v>
+        <v>718.3993657398219</v>
       </c>
       <c r="W28" t="n">
-        <v>1127.004643672185</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="X28" t="n">
-        <v>899.0150927741679</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y28" t="n">
-        <v>678.2225136306378</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.010087623274</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1252.053668231499</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1252.053668231499</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>962.6364981945386</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>962.6364981945386</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.8439190510085</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6715,22 +6715,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2413.343925613455</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4206.132591937264</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>4037.196409009357</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>4037.196409009357</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4571.437402977332</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4343.447852079315</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>4206.132591937264</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6928,43 +6928,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2413.343925613455</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241883</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881687998</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.497233179929</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471119</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.60808497466</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980056</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585739</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557895</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557895</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473447</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262953</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765114</v>
       </c>
       <c r="V37" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706245</v>
       </c>
       <c r="W37" t="n">
-        <v>720.4504516500522</v>
+        <v>531.3977182706245</v>
       </c>
       <c r="X37" t="n">
-        <v>637.0624929440586</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>383.3526312522299</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>383.3526312522299</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>383.3526312522299</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>383.3526312522299</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>383.3526312522299</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1773095720505</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>785.7936752259998</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>785.7936752259998</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>565.0010960824696</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,34 +7426,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1348.697967175601</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1348.697967175601</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1059.569328389159</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>804.8848401832718</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>804.8848401832718</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>576.8952892852544</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>576.8952892852544</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7645,7 +7645,7 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7663,16 +7663,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>933.2366688293934</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>933.2366688293934</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,10 +8069,10 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>342.7591889337359</v>
+        <v>212.3582274761389</v>
       </c>
       <c r="O3" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948385</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357594</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>450.1033532835731</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470456</v>
+        <v>335.2690053709175</v>
       </c>
       <c r="O6" t="n">
-        <v>82.43314617337701</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>234.5724683414738</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247343</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>96.03744927814699</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L18" t="n">
-        <v>349.7653003338569</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>230.7151863772033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>360.5026862907255</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>182.0340742867944</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>230.7151863772038</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>124.3400780863228</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119814</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.6026921294541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>308.1251096272032</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>10.9533302154623</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>122.7035966537596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55835522197651</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.3902972694959</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.4503586621817</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>191.830295094364</v>
+        <v>185.1316309944978</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>239.7641860790414</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.64254581146466</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.1555762701035</v>
+        <v>14.45548819889669</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>32.13321243688911</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>49.2046896351244</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>5.767578579961395</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>785728.8412942368</v>
+        <v>785728.8412942369</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>785728.8412942368</v>
+        <v>785728.8412942367</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>785728.8412942368</v>
+        <v>785728.8412942367</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>785728.8412942368</v>
+        <v>785728.8412942367</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>785728.8412942367</v>
+        <v>785728.8412942365</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="H2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.495580334</v>
       </c>
       <c r="K2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="L2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="L2" t="n">
-        <v>625646.4955803342</v>
-      </c>
       <c r="M2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="O2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703831</v>
+        <v>106137.151770383</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252116</v>
+        <v>316711.9424252117</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113919</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313393</v>
+        <v>24677.24609313397</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817157</v>
+        <v>76496.15793817147</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316567</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.4214831656</v>
       </c>
       <c r="G4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.4214831656</v>
       </c>
       <c r="I4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="J4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316547</v>
       </c>
       <c r="K4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="L4" t="n">
+        <v>43561.42148316553</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43561.42148316542</v>
+      </c>
+      <c r="N4" t="n">
+        <v>43561.42148316557</v>
+      </c>
+      <c r="O4" t="n">
+        <v>43561.42148316553</v>
+      </c>
+      <c r="P4" t="n">
         <v>43561.42148316555</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43561.42148316555</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43561.42148316556</v>
-      </c>
-      <c r="O4" t="n">
-        <v>43561.42148316555</v>
-      </c>
-      <c r="P4" t="n">
-        <v>43561.42148316556</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.4220148571</v>
+        <v>58810.42201485709</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162431.7264909211</v>
+        <v>162431.7264909213</v>
       </c>
       <c r="C6" t="n">
-        <v>204999.182157743</v>
+        <v>204999.1821577432</v>
       </c>
       <c r="D6" t="n">
-        <v>65055.79901037595</v>
+        <v>65055.79901037578</v>
       </c>
       <c r="E6" t="n">
-        <v>-35062.2883284441</v>
+        <v>-36036.87958816612</v>
       </c>
       <c r="F6" t="n">
-        <v>490097.748148452</v>
+        <v>489123.1568887302</v>
       </c>
       <c r="G6" t="n">
-        <v>490097.7481484523</v>
+        <v>489123.1568887305</v>
       </c>
       <c r="H6" t="n">
-        <v>490097.7481484519</v>
+        <v>489123.1568887302</v>
       </c>
       <c r="I6" t="n">
-        <v>490097.7481484523</v>
+        <v>489123.1568887304</v>
       </c>
       <c r="J6" t="n">
-        <v>417843.0532773125</v>
+        <v>416868.4620175911</v>
       </c>
       <c r="K6" t="n">
-        <v>465420.502055318</v>
+        <v>464445.9107955964</v>
       </c>
       <c r="L6" t="n">
-        <v>413601.5902102805</v>
+        <v>412626.9989505588</v>
       </c>
       <c r="M6" t="n">
-        <v>355296.7329146148</v>
+        <v>354322.1416548929</v>
       </c>
       <c r="N6" t="n">
-        <v>490097.7481484518</v>
+        <v>489123.1568887302</v>
       </c>
       <c r="O6" t="n">
-        <v>490097.7481484518</v>
+        <v>489123.1568887301</v>
       </c>
       <c r="P6" t="n">
-        <v>490097.748148452</v>
+        <v>489123.1568887302</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,46 +26740,46 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593885</v>
+        <v>117.5602045593884</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026314</v>
+        <v>82.53894384026309</v>
       </c>
       <c r="D3" t="n">
         <v>260.1834596576982</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406603</v>
+        <v>95.88311714406596</v>
       </c>
       <c r="D4" t="n">
         <v>302.2476419081341</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023558</v>
+        <v>276.1565137023557</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406581</v>
+        <v>95.88311714406596</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081341</v>
+        <v>302.2476419081337</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406603</v>
+        <v>95.88311714406596</v>
       </c>
       <c r="L4" t="n">
         <v>302.2476419081341</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>160.30192399687</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>285.4739785948052</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>93.74980050031625</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1764463866745984</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>138.217680340412</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.21064737185782</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>24.23075541710068</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528992</v>
+        <v>34.83641489528998</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128885</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>334.6347480657417</v>
@@ -27669,13 +27669,13 @@
         <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>96.47168056055702</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
         <v>80.69052336281885</v>
@@ -27745,13 +27745,13 @@
         <v>84.45800155129687</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>24.69389079760973</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27760,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>30.61400220297823</v>
       </c>
       <c r="G7" t="n">
-        <v>31.62691682661602</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>160.342354801553</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322672</v>
+        <v>68.41045236322674</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>236.9043457820917</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>350.6325401840443</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>61.83750650967824</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>75.95753524357761</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28250,7 +28250,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8.545195366120118e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28800,13 +28800,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28815,13 +28815,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-1.438131666832807e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-2.511566532588691e-13</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246769</v>
+        <v>0.4726038374246767</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025474</v>
+        <v>4.840054050025472</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231488</v>
+        <v>18.22005944231487</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662271</v>
+        <v>40.11165994662269</v>
       </c>
       <c r="K5" t="n">
-        <v>60.1169803848093</v>
+        <v>60.11698038480927</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439477</v>
+        <v>74.58043007439474</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819587</v>
+        <v>82.98509856819582</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127874</v>
+        <v>84.32788422127869</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288711</v>
+        <v>79.62842981288706</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646538</v>
+        <v>67.96102257646534</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869412</v>
+        <v>51.0358976486941</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262789</v>
+        <v>29.68720080262787</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531484</v>
+        <v>10.76945994531483</v>
       </c>
       <c r="T5" t="n">
         <v>2.068823298326524</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397415</v>
+        <v>0.03780830699397413</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560432</v>
+        <v>0.252865345656043</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941259</v>
+        <v>2.442146890941258</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596224</v>
+        <v>8.706109488596219</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182819</v>
+        <v>23.89022987182818</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078308</v>
+        <v>40.83220803078306</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483517</v>
+        <v>54.90394270483514</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486671</v>
+        <v>64.07031148486668</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270923</v>
+        <v>65.76606198270919</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106743</v>
+        <v>60.1630982710674</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496845</v>
+        <v>48.28619043496843</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128719</v>
+        <v>32.27803956128718</v>
       </c>
       <c r="R6" t="n">
         <v>15.69983260134626</v>
       </c>
       <c r="S6" t="n">
-        <v>4.69686288970764</v>
+        <v>4.696862889707639</v>
       </c>
       <c r="T6" t="n">
         <v>1.019224792359226</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368706</v>
+        <v>0.01663587800368705</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005366</v>
+        <v>0.2119938115005365</v>
       </c>
       <c r="H7" t="n">
-        <v>1.88481770588659</v>
+        <v>1.884817705886589</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761593</v>
+        <v>6.37523207676159</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308794</v>
+        <v>14.98796247308793</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342597</v>
+        <v>24.62982646342596</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072524</v>
+        <v>31.51769812072522</v>
       </c>
       <c r="M7" t="n">
-        <v>33.2309935609432</v>
+        <v>33.23099356094318</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898668</v>
+        <v>32.44083480898666</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736676</v>
+        <v>29.96436164736675</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275579</v>
+        <v>25.63968789275578</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846766</v>
+        <v>17.75159088846765</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651398</v>
+        <v>9.532012651651392</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513895</v>
+        <v>3.694473969513894</v>
       </c>
       <c r="T7" t="n">
-        <v>0.905791740047747</v>
+        <v>0.9057917400477465</v>
       </c>
       <c r="U7" t="n">
         <v>0.01156329880912019</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
@@ -34789,10 +34789,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>231.0092291087367</v>
+        <v>100.6082676511396</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821096</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201019</v>
+        <v>28.16237059201018</v>
       </c>
       <c r="K5" t="n">
         <v>164.1725419109935</v>
       </c>
       <c r="L5" t="n">
-        <v>256.475229654858</v>
+        <v>256.4752296548579</v>
       </c>
       <c r="M5" t="n">
         <v>302.1523988337556</v>
       </c>
       <c r="N5" t="n">
-        <v>292.261745036672</v>
+        <v>292.2617450366719</v>
       </c>
       <c r="O5" t="n">
         <v>230.3303996539457</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926785</v>
+        <v>158.5267349926784</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414931</v>
+        <v>41.04519843414929</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557033</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690027</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284202</v>
+        <v>287.1899082284201</v>
       </c>
       <c r="M6" t="n">
         <v>372.0396308464215</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464215</v>
+        <v>269.6933552702934</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>311.4291731033525</v>
       </c>
       <c r="P6" t="n">
-        <v>148.884251362112</v>
+        <v>232.7745516605754</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111148</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543119</v>
+        <v>2.360334637543108</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104137</v>
+        <v>59.10772338104136</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278379</v>
+        <v>72.81487052278376</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821527</v>
+        <v>76.57300718821526</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140644</v>
+        <v>54.54948956140642</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764928</v>
+        <v>22.91824715764927</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192551</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L18" t="n">
-        <v>599.0230052898812</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>479.9728913332276</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36214,13 +36214,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>609.7603912467498</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>332.6095128747336</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382552</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8086013087286</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>212.353110871397</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081092</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>201.6157249145282</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016555803</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221093</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>641.3196830252161</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349766</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
